--- a/raw_data/eurostat/nuts2_emp_lfs_9908.xlsx
+++ b/raw_data/eurostat/nuts2_emp_lfs_9908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A0B63-88E3-6B43-8CEC-7847087988D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D9EB3-104B-1B47-93CD-F0D69B252A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="-23680" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="148">
   <si>
     <t>Employment by sex, age, economic activity and NUTS 2 regions (1999-2008, NACE Rev. 1.1) (1 000) [lfst_r_lfe2en1__custom_12460587]</t>
   </si>
@@ -484,7 +484,10 @@
     <t>region</t>
   </si>
   <si>
-    <t>total_emp</t>
+    <t>total_emp_2001</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,12 +666,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,90 +1465,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2642,12 +2644,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -2656,6 +2652,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2754,90 +2756,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3925,12 +3927,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -3939,6 +3935,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4037,90 +4039,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5208,12 +5210,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -5222,6 +5218,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5971,90 +5973,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7142,12 +7144,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -7156,6 +7152,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7254,90 +7256,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8425,12 +8427,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -8439,6 +8435,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8452,7 +8454,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8530,10 +8532,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -8556,10 +8558,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -8588,22 +8590,22 @@
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9325,90 +9327,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10496,12 +10498,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -10510,6 +10506,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10608,90 +10610,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11787,12 +11789,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -11801,6 +11797,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11899,90 +11901,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -13070,12 +13072,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -13084,6 +13080,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13182,90 +13184,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="L12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14361,12 +14363,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -14375,6 +14371,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/eurostat/nuts2_emp_lfs_9908.xlsx
+++ b/raw_data/eurostat/nuts2_emp_lfs_9908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D9EB3-104B-1B47-93CD-F0D69B252A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0D2A7B-7C3D-8842-AF25-018C632D3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Sheet 9" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet 10" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="149">
   <si>
     <t>Employment by sex, age, economic activity and NUTS 2 regions (1999-2008, NACE Rev. 1.1) (1 000) [lfst_r_lfe2en1__custom_12460587]</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>total_emp_2004</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,90 +1468,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2644,6 +2647,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -2652,12 +2661,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2756,90 +2759,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3927,6 +3930,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -3935,12 +3944,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4039,90 +4042,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5210,6 +5213,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -5218,12 +5227,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5973,90 +5976,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7144,6 +7147,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -7152,12 +7161,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7256,90 +7259,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8427,6 +8430,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -8435,12 +8444,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8450,11 +8453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8532,10 +8535,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -8558,10 +8561,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -9327,90 +9330,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10498,6 +10501,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -10506,12 +10515,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10610,90 +10613,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11789,6 +11792,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -11797,12 +11806,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11810,39 +11813,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -11850,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -11858,8 +11854,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -11867,7 +11863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -11883,7 +11879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -11891,7 +11887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -11899,104 +11895,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="H11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="F12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="G12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>43</v>
@@ -12013,1043 +11973,611 @@
       <c r="H13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <v>24954.400000000001</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
+      <c r="D14" s="15">
+        <v>921.6</v>
       </c>
       <c r="E14" s="15">
-        <v>921.6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>5934.4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4293.6000000000004</v>
       </c>
       <c r="G14" s="15">
-        <v>5934.4</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="15">
-        <v>4293.6000000000004</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="15">
         <v>1640.8</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="19">
+      <c r="H14" s="19">
         <v>17549</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="21">
         <v>5023.3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="E15" s="14">
         <v>829.6</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="F15" s="14">
         <v>576.6</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="G15" s="18">
         <v>253</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="H15" s="14">
         <v>4156.7</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="20">
         <v>1007.7</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="15">
         <v>62.5</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>134</v>
+      <c r="E16" s="19">
+        <v>298</v>
+      </c>
+      <c r="F16" s="19">
+        <v>225</v>
       </c>
       <c r="G16" s="19">
-        <v>298</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="19">
-        <v>225</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="19">
         <v>73</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="H16" s="15">
         <v>642.9</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="21">
         <v>666.5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
+      <c r="E17" s="14">
+        <v>193.2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>138</v>
       </c>
       <c r="G17" s="14">
-        <v>193.2</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="18">
-        <v>138</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="14">
         <v>55.2</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="H17" s="14">
         <v>438.5</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="20">
         <v>483.3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="E18" s="15">
         <v>172.2</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="15">
         <v>148.5</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" s="19">
+      <c r="H18" s="19">
         <v>294</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>554.5</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>43</v>
+      <c r="D19" s="14">
+        <v>42.5</v>
       </c>
       <c r="E19" s="14">
-        <v>42.5</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="14">
         <v>152.30000000000001</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="F19" s="14">
         <v>101.3</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="G19" s="18">
         <v>51</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="18">
+      <c r="H19" s="18">
         <v>357</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="20">
         <v>731.7</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>134</v>
+      <c r="E20" s="15">
+        <v>220.7</v>
+      </c>
+      <c r="F20" s="15">
+        <v>185.6</v>
       </c>
       <c r="G20" s="15">
-        <v>220.7</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="15">
-        <v>185.6</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="15">
         <v>35.200000000000003</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="15">
+      <c r="H20" s="15">
         <v>499.6</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="21">
         <v>1487.6</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
+      <c r="D21" s="14">
+        <v>40.200000000000003</v>
       </c>
       <c r="E21" s="14">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>396.9</v>
+      </c>
+      <c r="F21" s="14">
+        <v>303.7</v>
       </c>
       <c r="G21" s="14">
-        <v>396.9</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="14">
-        <v>303.7</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="14">
         <v>93.2</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="14">
+      <c r="H21" s="14">
         <v>1048.5999999999999</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="20">
         <v>748.7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>134</v>
+      <c r="E22" s="15">
+        <v>219.9</v>
+      </c>
+      <c r="F22" s="19">
+        <v>182</v>
       </c>
       <c r="G22" s="15">
-        <v>219.9</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="19">
-        <v>182</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="15">
         <v>37.9</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="H22" s="15">
         <v>498.3</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="21">
         <v>765.2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
+      <c r="E23" s="14">
+        <v>221.5</v>
+      </c>
+      <c r="F23" s="14">
+        <v>172.2</v>
       </c>
       <c r="G23" s="14">
-        <v>221.5</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="14">
-        <v>172.2</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="14">
         <v>49.3</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="14">
+      <c r="H23" s="14">
         <v>534.79999999999995</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="20">
         <v>555.1</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
+      <c r="D24" s="15">
+        <v>43.7</v>
       </c>
       <c r="E24" s="15">
-        <v>43.7</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="15">
         <v>142.6</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="F24" s="19">
         <v>109</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="15">
+      <c r="H24" s="15">
         <v>367.1</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="21">
         <v>849.4</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
+      <c r="E25" s="14">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="F25" s="14">
+        <v>195.7</v>
       </c>
       <c r="G25" s="14">
-        <v>262.39999999999998</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="14">
-        <v>195.7</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="14">
         <v>66.7</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25" s="14">
+      <c r="H25" s="14">
         <v>566.70000000000005</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="20">
         <v>1434.6</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="15">
         <v>69.900000000000006</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="E26" s="19">
         <v>394</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="F26" s="15">
         <v>281.39999999999998</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="G26" s="15">
         <v>112.6</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="15">
+      <c r="H26" s="15">
         <v>969.9</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="21">
         <v>1218.5</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
+      <c r="D27" s="14">
+        <v>75.7</v>
       </c>
       <c r="E27" s="14">
-        <v>75.7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>43</v>
+        <v>324.89999999999998</v>
+      </c>
+      <c r="F27" s="14">
+        <v>243.7</v>
       </c>
       <c r="G27" s="14">
-        <v>324.89999999999998</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="14">
-        <v>243.7</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="14">
         <v>81.2</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="14">
+      <c r="H27" s="14">
         <v>814.6</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="20">
         <v>1149</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
+      <c r="D28" s="15">
+        <v>88.6</v>
       </c>
       <c r="E28" s="15">
-        <v>88.6</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>43</v>
+        <v>253.4</v>
+      </c>
+      <c r="F28" s="15">
+        <v>164.2</v>
       </c>
       <c r="G28" s="15">
-        <v>253.4</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="15">
-        <v>164.2</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="15">
         <v>89.2</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="15">
+      <c r="H28" s="15">
         <v>802.1</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="21">
         <v>296.60000000000002</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="14">
+      <c r="E29" s="14">
         <v>76.3</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="F29" s="14">
         <v>53.5</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="14">
+      <c r="H29" s="14">
         <v>194.3</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <v>670.6</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="19">
         <v>53</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>134</v>
+      <c r="E30" s="15">
+        <v>176.1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>124.3</v>
       </c>
       <c r="G30" s="15">
-        <v>176.1</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="15">
-        <v>124.3</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="15">
         <v>51.8</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="15">
+      <c r="H30" s="15">
         <v>439.5</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="21">
         <v>873</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>43</v>
+      <c r="D31" s="14">
+        <v>51.6</v>
       </c>
       <c r="E31" s="14">
-        <v>51.6</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>134</v>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F31" s="14">
+        <v>73.599999999999994</v>
       </c>
       <c r="G31" s="14">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="14">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="14">
         <v>67.2</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" s="14">
+      <c r="H31" s="14">
         <v>678.7</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <v>1136.4000000000001</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>43</v>
+      <c r="D32" s="15">
+        <v>80.400000000000006</v>
       </c>
       <c r="E32" s="15">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>43</v>
+        <v>242.3</v>
+      </c>
+      <c r="F32" s="15">
+        <v>153.19999999999999</v>
       </c>
       <c r="G32" s="15">
-        <v>242.3</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="15">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="15">
         <v>89.1</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="15">
+      <c r="H32" s="15">
         <v>812.5</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="21">
         <v>508.7</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
+      <c r="D33" s="14">
+        <v>42.7</v>
       </c>
       <c r="E33" s="14">
-        <v>42.7</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>134</v>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="F33" s="14">
+        <v>114.9</v>
       </c>
       <c r="G33" s="14">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="14">
-        <v>114.9</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="14">
         <v>37.299999999999997</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M33" s="14">
+      <c r="H33" s="14">
         <v>310.3</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <v>2457.9</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>43</v>
+      <c r="D34" s="15">
+        <v>61.3</v>
       </c>
       <c r="E34" s="15">
-        <v>61.3</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>134</v>
+        <v>733.4</v>
+      </c>
+      <c r="F34" s="15">
+        <v>530.79999999999995</v>
       </c>
       <c r="G34" s="15">
-        <v>733.4</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="15">
-        <v>530.79999999999995</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="15">
         <v>202.6</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="19">
+      <c r="H34" s="19">
         <v>1656</v>
       </c>
-      <c r="N34" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="21">
         <v>1790.2</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="D35" s="14">
         <v>49.1</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="E35" s="18">
         <v>329</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="F35" s="14">
         <v>215.5</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="14">
+      <c r="G35" s="14">
         <v>113.5</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="14">
+      <c r="H35" s="14">
         <v>1405.5</v>
       </c>
-      <c r="N35" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="20">
         <v>66.900000000000006</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M36" s="15">
+      <c r="H36" s="15">
         <v>61.4</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
@@ -13057,12 +12585,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -13071,21 +12599,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+  <mergeCells count="2">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13184,90 +12700,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14363,6 +13879,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -14371,12 +13893,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
